--- a/data/pca/factorExposure/factorExposure_2009-03-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-03-03.xlsx
@@ -14,12 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +695,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01627442349698572</v>
+        <v>-0.01592273644297442</v>
       </c>
       <c r="C2">
-        <v>-0.002032795207849992</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.001508204264278527</v>
+      </c>
+      <c r="D2">
+        <v>0.01039650679917272</v>
+      </c>
+      <c r="E2">
+        <v>-0.01831813149257827</v>
+      </c>
+      <c r="F2">
+        <v>-0.006447700980713342</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,175 +748,319 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.08108991720370454</v>
+        <v>-0.08471347403564398</v>
       </c>
       <c r="C4">
-        <v>-0.0195386824657829</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.0157126041148858</v>
+      </c>
+      <c r="D4">
+        <v>0.08651525981860464</v>
+      </c>
+      <c r="E4">
+        <v>0.05217954064266293</v>
+      </c>
+      <c r="F4">
+        <v>0.01463817517729186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-0.001614964567233243</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>0.0001128126625541825</v>
+      </c>
+      <c r="D5">
+        <v>0.001549873456970576</v>
+      </c>
+      <c r="E5">
+        <v>0.001363288202877619</v>
+      </c>
+      <c r="F5">
+        <v>-0.003364429234051765</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.164931866396033</v>
+        <v>-0.168590702459285</v>
       </c>
       <c r="C6">
-        <v>-0.04064528746395545</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.03763049655414166</v>
+      </c>
+      <c r="D6">
+        <v>-0.008233130457213762</v>
+      </c>
+      <c r="E6">
+        <v>0.05935513911645202</v>
+      </c>
+      <c r="F6">
+        <v>0.008460757554378437</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.05383485990102627</v>
+        <v>-0.05877589762042278</v>
       </c>
       <c r="C7">
-        <v>-0.001477588570496427</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.001199165114546278</v>
+      </c>
+      <c r="D7">
+        <v>0.05735439712777847</v>
+      </c>
+      <c r="E7">
+        <v>0.03576062394952</v>
+      </c>
+      <c r="F7">
+        <v>0.05533283935126788</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.05762202664755869</v>
+        <v>-0.05425888826862397</v>
       </c>
       <c r="C8">
-        <v>0.00920874949107941</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.01089744069977298</v>
+      </c>
+      <c r="D8">
+        <v>0.03905009054824937</v>
+      </c>
+      <c r="E8">
+        <v>-0.02273695027780441</v>
+      </c>
+      <c r="F8">
+        <v>-0.02091712680816269</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.06168922455701013</v>
+        <v>-0.06566391316438824</v>
       </c>
       <c r="C9">
-        <v>-0.01472713170094815</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.01092206548545832</v>
+      </c>
+      <c r="D9">
+        <v>0.0917331251793304</v>
+      </c>
+      <c r="E9">
+        <v>0.07100209676083313</v>
+      </c>
+      <c r="F9">
+        <v>0.02072848687213329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.1013617981885534</v>
+        <v>-0.09599574676783812</v>
       </c>
       <c r="C10">
-        <v>-0.02744774267510233</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.02764113392919858</v>
+      </c>
+      <c r="D10">
+        <v>-0.1483550585965065</v>
+      </c>
+      <c r="E10">
+        <v>-0.09558882022086385</v>
+      </c>
+      <c r="F10">
+        <v>-0.004263241404021953</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.08209221330481174</v>
+        <v>-0.08001571383204868</v>
       </c>
       <c r="C11">
-        <v>-0.01645189326233986</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.01177853934871085</v>
+      </c>
+      <c r="D11">
+        <v>0.1344875386938342</v>
+      </c>
+      <c r="E11">
+        <v>0.03751689742391843</v>
+      </c>
+      <c r="F11">
+        <v>-0.007391819395178235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.08727931403259107</v>
+        <v>-0.08250901161079227</v>
       </c>
       <c r="C12">
-        <v>-0.01429312104910188</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.008978270821675061</v>
+      </c>
+      <c r="D12">
+        <v>0.1530026938066243</v>
+      </c>
+      <c r="E12">
+        <v>0.04008382883627334</v>
+      </c>
+      <c r="F12">
+        <v>0.005843440165241474</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04171227712309036</v>
+        <v>-0.04217511256174009</v>
       </c>
       <c r="C13">
-        <v>-0.007643490009402145</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.003716017785397675</v>
+      </c>
+      <c r="D13">
+        <v>0.06577517130866044</v>
+      </c>
+      <c r="E13">
+        <v>0.009468794734447809</v>
+      </c>
+      <c r="F13">
+        <v>0.01741478793517084</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.02016614945837841</v>
+        <v>-0.0225643195019619</v>
       </c>
       <c r="C14">
-        <v>-0.01512577323527135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.01396167313955944</v>
+      </c>
+      <c r="D14">
+        <v>0.04510104994946558</v>
+      </c>
+      <c r="E14">
+        <v>0.03277804854738573</v>
+      </c>
+      <c r="F14">
+        <v>-0.0005050101443335328</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.02985567179876651</v>
+        <v>-0.03211425456211629</v>
       </c>
       <c r="C15">
-        <v>-0.007654303580096391</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.00619285613049978</v>
+      </c>
+      <c r="D15">
+        <v>0.05284439812909551</v>
+      </c>
+      <c r="E15">
+        <v>0.02651124006961463</v>
+      </c>
+      <c r="F15">
+        <v>0.01463633188840805</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.06255584292939297</v>
+        <v>-0.06275401205283455</v>
       </c>
       <c r="C16">
-        <v>-0.004763779102204237</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.0003136490035162537</v>
+      </c>
+      <c r="D16">
+        <v>0.1448462774845342</v>
+      </c>
+      <c r="E16">
+        <v>0.04971784992870667</v>
+      </c>
+      <c r="F16">
+        <v>-0.01434754714555407</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.003513352985548437</v>
       </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>-0.00134009461894683</v>
+      </c>
+      <c r="D17">
+        <v>0.003291842375629132</v>
+      </c>
+      <c r="E17">
+        <v>-0.0009161448287464292</v>
+      </c>
+      <c r="F17">
+        <v>-0.007748044409189654</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.03409880371377965</v>
+        <v>-0.04832329948743237</v>
       </c>
       <c r="C18">
-        <v>-0.0005707377705587054</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>0.0009852192093533969</v>
+      </c>
+      <c r="D18">
+        <v>0.03493119152885117</v>
+      </c>
+      <c r="E18">
+        <v>-0.01430741637034973</v>
+      </c>
+      <c r="F18">
+        <v>-0.0009213235732210903</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1068,159 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06009830658489389</v>
+        <v>-0.06000335735034722</v>
       </c>
       <c r="C20">
-        <v>-0.004955536928673882</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.002217668504480265</v>
+      </c>
+      <c r="D20">
+        <v>0.09807285922870318</v>
+      </c>
+      <c r="E20">
+        <v>0.06709988491134385</v>
+      </c>
+      <c r="F20">
+        <v>-0.009142141911406689</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.0416590397781467</v>
+        <v>-0.04361516667188211</v>
       </c>
       <c r="C21">
-        <v>-0.0109493969921007</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.008384384122615975</v>
+      </c>
+      <c r="D21">
+        <v>0.05460732975414906</v>
+      </c>
+      <c r="E21">
+        <v>-0.01119454513068575</v>
+      </c>
+      <c r="F21">
+        <v>0.005985348143863163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.0461013610997696</v>
+        <v>-0.04473027177297936</v>
       </c>
       <c r="C22">
-        <v>-0.005259258632928183</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.002763374326262521</v>
+      </c>
+      <c r="D22">
+        <v>0.02459387696194454</v>
+      </c>
+      <c r="E22">
+        <v>-0.03172991842780627</v>
+      </c>
+      <c r="F22">
+        <v>-0.130659357866155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.04611043368583136</v>
+        <v>-0.04473804835716155</v>
       </c>
       <c r="C23">
-        <v>-0.005261950644085299</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.002765797193138347</v>
+      </c>
+      <c r="D23">
+        <v>0.02458790632165746</v>
+      </c>
+      <c r="E23">
+        <v>-0.03175454376072711</v>
+      </c>
+      <c r="F23">
+        <v>-0.130698586146254</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.07026874216372217</v>
+        <v>-0.06927621008706467</v>
       </c>
       <c r="C24">
-        <v>-0.005714162631711168</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.001516389027185951</v>
+      </c>
+      <c r="D24">
+        <v>0.1369521623060477</v>
+      </c>
+      <c r="E24">
+        <v>0.04413366599166049</v>
+      </c>
+      <c r="F24">
+        <v>0.003268433459239863</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.07654900010364518</v>
+        <v>-0.07444291367857449</v>
       </c>
       <c r="C25">
-        <v>-0.008772698686831185</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.004638674117000043</v>
+      </c>
+      <c r="D25">
+        <v>0.1246533224523452</v>
+      </c>
+      <c r="E25">
+        <v>0.02669248865958518</v>
+      </c>
+      <c r="F25">
+        <v>0.02159632622427545</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.0568053976047439</v>
+        <v>-0.06111536283690352</v>
       </c>
       <c r="C26">
-        <v>-0.01882456841100775</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.01624289294528164</v>
+      </c>
+      <c r="D26">
+        <v>0.06831311288461062</v>
+      </c>
+      <c r="E26">
+        <v>0.004481949988459501</v>
+      </c>
+      <c r="F26">
+        <v>-0.007124544431924788</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,120 +1228,219 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1620731667846526</v>
+        <v>-0.1656323811883963</v>
       </c>
       <c r="C28">
-        <v>-0.03453123186432094</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.03597797376136105</v>
+      </c>
+      <c r="D28">
+        <v>-0.2380389531677182</v>
+      </c>
+      <c r="E28">
+        <v>-0.0303799264804614</v>
+      </c>
+      <c r="F28">
+        <v>0.05190584652188597</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02502099419456981</v>
+        <v>-0.02740300090319487</v>
       </c>
       <c r="C29">
-        <v>-0.009898597959126412</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.009337866437363389</v>
+      </c>
+      <c r="D29">
+        <v>0.04259466618282839</v>
+      </c>
+      <c r="E29">
+        <v>-0.003514775499480373</v>
+      </c>
+      <c r="F29">
+        <v>-0.0214877737102133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.0426632302459449</v>
+        <v>-0.04428398482103396</v>
       </c>
       <c r="C30">
-        <v>-0.004107172465040923</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.001075823788953695</v>
+      </c>
+      <c r="D30">
+        <v>0.07922261206380853</v>
+      </c>
+      <c r="E30">
+        <v>0.08931228416151621</v>
+      </c>
+      <c r="F30">
+        <v>0.07367297963685275</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.05208045090436589</v>
+        <v>-0.05201190245666083</v>
       </c>
       <c r="C31">
-        <v>-0.0199203020229684</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.01756145129886143</v>
+      </c>
+      <c r="D31">
+        <v>0.03753905921995783</v>
+      </c>
+      <c r="E31">
+        <v>0.01134102422601748</v>
+      </c>
+      <c r="F31">
+        <v>-0.03249134031626996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.04314013727997665</v>
+        <v>-0.0483767060429007</v>
       </c>
       <c r="C32">
-        <v>-0.001209857232837899</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.001348464144762966</v>
+      </c>
+      <c r="D32">
+        <v>0.03992989820679334</v>
+      </c>
+      <c r="E32">
+        <v>0.01650001460510965</v>
+      </c>
+      <c r="F32">
+        <v>-0.02042368364252048</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.08154296123723312</v>
+        <v>-0.08416305075556862</v>
       </c>
       <c r="C33">
-        <v>-0.01315334872803177</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.008131822493105968</v>
+      </c>
+      <c r="D33">
+        <v>0.1191073560224511</v>
+      </c>
+      <c r="E33">
+        <v>0.05112321211044328</v>
+      </c>
+      <c r="F33">
+        <v>-0.0103862026421</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.05868598176358325</v>
+        <v>-0.05898467784537936</v>
       </c>
       <c r="C34">
-        <v>-0.01403072990276823</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.009581417089992349</v>
+      </c>
+      <c r="D34">
+        <v>0.1275049763441713</v>
+      </c>
+      <c r="E34">
+        <v>0.04638767955451917</v>
+      </c>
+      <c r="F34">
+        <v>0.02600432435121763</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02657928250482528</v>
+        <v>-0.02804747307823826</v>
       </c>
       <c r="C35">
-        <v>-0.005291280888895556</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.004503266139414425</v>
+      </c>
+      <c r="D35">
+        <v>0.01766855619018991</v>
+      </c>
+      <c r="E35">
+        <v>0.01194692880064188</v>
+      </c>
+      <c r="F35">
+        <v>-0.0186029368590946</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02284664274297386</v>
+        <v>-0.02747320254430083</v>
       </c>
       <c r="C36">
-        <v>-0.008785492527010953</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.007788607752111776</v>
+      </c>
+      <c r="D36">
+        <v>0.04898327859699395</v>
+      </c>
+      <c r="E36">
+        <v>0.04062281662738895</v>
+      </c>
+      <c r="F36">
+        <v>-0.01181252000261429</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.00349879253790016</v>
       </c>
       <c r="C37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>-0.0007901199749988061</v>
+      </c>
+      <c r="D37">
+        <v>0.004651042773559795</v>
+      </c>
+      <c r="E37">
+        <v>-0.001283921447273343</v>
+      </c>
+      <c r="F37">
+        <v>-0.0002833717671963036</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1106,43 +1448,79 @@
       <c r="C38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.0880351601999266</v>
+        <v>-0.08208383424140046</v>
       </c>
       <c r="C39">
-        <v>-0.01874036698265138</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.01363136107074783</v>
+      </c>
+      <c r="D39">
+        <v>0.154500317850447</v>
+      </c>
+      <c r="E39">
+        <v>0.02619186628539246</v>
+      </c>
+      <c r="F39">
+        <v>-0.005481772318343191</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.04425925390010838</v>
+        <v>-0.04970216868265215</v>
       </c>
       <c r="C40">
-        <v>-0.01280899315661068</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.01080367085745527</v>
+      </c>
+      <c r="D40">
+        <v>0.05882955212088456</v>
+      </c>
+      <c r="E40">
+        <v>-0.01214123283982084</v>
+      </c>
+      <c r="F40">
+        <v>0.004135084701039682</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02791949986779169</v>
+        <v>-0.02955915184295075</v>
       </c>
       <c r="C41">
-        <v>-0.008937337983788648</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.008160704917299597</v>
+      </c>
+      <c r="D41">
+        <v>0.0257271754122003</v>
+      </c>
+      <c r="E41">
+        <v>-0.005234066492331026</v>
+      </c>
+      <c r="F41">
+        <v>-0.005788746585918545</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,98 +1528,179 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04245961882391483</v>
+        <v>-0.04131802527076658</v>
       </c>
       <c r="C43">
-        <v>-0.01004273126897393</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.008874947861813639</v>
+      </c>
+      <c r="D43">
+        <v>0.0362933323952675</v>
+      </c>
+      <c r="E43">
+        <v>-0.004019138902328887</v>
+      </c>
+      <c r="F43">
+        <v>-0.02452635015804678</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.0559027158796435</v>
+        <v>-0.0639578041491711</v>
       </c>
       <c r="C44">
-        <v>-0.02085849670911565</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.01818645774144264</v>
+      </c>
+      <c r="D44">
+        <v>0.09134247768808049</v>
+      </c>
+      <c r="E44">
+        <v>0.2296198005176259</v>
+      </c>
+      <c r="F44">
+        <v>0.07682170563547873</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.0002164009263080563</v>
       </c>
       <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>5.248876393140685e-05</v>
+      </c>
+      <c r="D45">
+        <v>-1.126694012166231e-05</v>
+      </c>
+      <c r="E45">
+        <v>-0.0005124797378293621</v>
+      </c>
+      <c r="F45">
+        <v>0.0003009637798534552</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.02519040258517284</v>
+        <v>-0.02583587706789752</v>
       </c>
       <c r="C46">
-        <v>-0.00541739088594933</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.004355457962014687</v>
+      </c>
+      <c r="D46">
+        <v>0.02814964342948977</v>
+      </c>
+      <c r="E46">
+        <v>-0.000412028721470499</v>
+      </c>
+      <c r="F46">
+        <v>-0.03286295448251512</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.05281107496166939</v>
+        <v>-0.05225565091887507</v>
       </c>
       <c r="C47">
-        <v>-0.007649950799340973</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.005822365152925014</v>
+      </c>
+      <c r="D47">
+        <v>0.02284327513098726</v>
+      </c>
+      <c r="E47">
+        <v>-0.01126941232582636</v>
+      </c>
+      <c r="F47">
+        <v>-0.0536855493925107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04758071575161928</v>
+        <v>-0.05133620791096323</v>
       </c>
       <c r="C48">
-        <v>-0.006166121205696327</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.003863449895786621</v>
+      </c>
+      <c r="D48">
+        <v>0.06450813721112225</v>
+      </c>
+      <c r="E48">
+        <v>0.009918476317894581</v>
+      </c>
+      <c r="F48">
+        <v>0.02288142485313903</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.1940458678903035</v>
+        <v>-0.1969123695701951</v>
       </c>
       <c r="C49">
-        <v>-0.03102503473788742</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.02652664291470041</v>
+      </c>
+      <c r="D49">
+        <v>-0.008127865719874582</v>
+      </c>
+      <c r="E49">
+        <v>0.04057099863748143</v>
+      </c>
+      <c r="F49">
+        <v>0.03597903058671248</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04990324517277975</v>
+        <v>-0.05201983176217709</v>
       </c>
       <c r="C50">
-        <v>-0.0151933591460092</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.01354840363588347</v>
+      </c>
+      <c r="D50">
+        <v>0.03426618095017844</v>
+      </c>
+      <c r="E50">
+        <v>0.02218692227432026</v>
+      </c>
+      <c r="F50">
+        <v>-0.01953188859171998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1249,65 +1708,119 @@
       <c r="C51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1457448320285587</v>
+        <v>-0.1399322643760551</v>
       </c>
       <c r="C52">
-        <v>-0.02613816366379513</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>0.0221464613209172</v>
+      </c>
+      <c r="D52">
+        <v>0.04368112479032032</v>
+      </c>
+      <c r="E52">
+        <v>0.05976955483560808</v>
+      </c>
+      <c r="F52">
+        <v>-0.02323903317340521</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1766722060456792</v>
+        <v>-0.1686525514650428</v>
       </c>
       <c r="C53">
-        <v>-0.03200817479402663</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.02818059242097817</v>
+      </c>
+      <c r="D53">
+        <v>0.01816212543449795</v>
+      </c>
+      <c r="E53">
+        <v>0.1185379770982079</v>
+      </c>
+      <c r="F53">
+        <v>-0.01360266640937058</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01338001813710328</v>
+        <v>-0.01628554862862531</v>
       </c>
       <c r="C54">
-        <v>-0.01150814864376087</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.01077957827105531</v>
+      </c>
+      <c r="D54">
+        <v>0.03568431614540883</v>
+      </c>
+      <c r="E54">
+        <v>0.008345266998345587</v>
+      </c>
+      <c r="F54">
+        <v>-0.01514121057760581</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1199303147197467</v>
+        <v>-0.1171332812732708</v>
       </c>
       <c r="C55">
-        <v>-0.02678645426125103</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.02382541937627064</v>
+      </c>
+      <c r="D55">
+        <v>0.02039334243876955</v>
+      </c>
+      <c r="E55">
+        <v>0.07151836348237359</v>
+      </c>
+      <c r="F55">
+        <v>-0.04644713430152513</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1813564050005094</v>
+        <v>-0.1750264853802188</v>
       </c>
       <c r="C56">
-        <v>-0.0296805726948627</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.02629170572173051</v>
+      </c>
+      <c r="D56">
+        <v>0.008292003576998226</v>
+      </c>
+      <c r="E56">
+        <v>0.07794379717129518</v>
+      </c>
+      <c r="F56">
+        <v>-0.03989839116424711</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,208 +1828,379 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04357145018654301</v>
+        <v>-0.04391836489617474</v>
       </c>
       <c r="C58">
-        <v>-0.003831671431563701</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-7.816455611330388e-05</v>
+      </c>
+      <c r="D58">
+        <v>0.09934294071495842</v>
+      </c>
+      <c r="E58">
+        <v>-0.01065276483539959</v>
+      </c>
+      <c r="F58">
+        <v>-0.03869733001553735</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1788973490061151</v>
+        <v>-0.1829286794351326</v>
       </c>
       <c r="C59">
-        <v>-0.03308482908471707</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.03426079777768748</v>
+      </c>
+      <c r="D59">
+        <v>-0.2009294545158719</v>
+      </c>
+      <c r="E59">
+        <v>-0.0821584384383344</v>
+      </c>
+      <c r="F59">
+        <v>-0.007784379985904422</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2189513368923074</v>
+        <v>-0.2146884005424564</v>
       </c>
       <c r="C60">
-        <v>-0.01007770042671091</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.005381414255048558</v>
+      </c>
+      <c r="D60">
+        <v>0.02108791688577815</v>
+      </c>
+      <c r="E60">
+        <v>-0.01529265034587147</v>
+      </c>
+      <c r="F60">
+        <v>-0.01037471381923579</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.06832528515212424</v>
+        <v>-0.06520261797905579</v>
       </c>
       <c r="C61">
-        <v>-0.01478107427179863</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.01015906821661765</v>
+      </c>
+      <c r="D61">
+        <v>0.1216866413922122</v>
+      </c>
+      <c r="E61">
+        <v>0.01342813017297589</v>
+      </c>
+      <c r="F61">
+        <v>-0.0142947630015974</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1687185398385444</v>
+        <v>-0.1653635652144126</v>
       </c>
       <c r="C62">
-        <v>-0.03132148576317803</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.02785337089054852</v>
+      </c>
+      <c r="D62">
+        <v>0.009718823630513988</v>
+      </c>
+      <c r="E62">
+        <v>0.06754092964025869</v>
+      </c>
+      <c r="F62">
+        <v>-0.04641285219205249</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.03939511205678659</v>
+        <v>-0.04450993168941354</v>
       </c>
       <c r="C63">
-        <v>-0.005011427952434149</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.002930300576668114</v>
+      </c>
+      <c r="D63">
+        <v>0.07167166147830524</v>
+      </c>
+      <c r="E63">
+        <v>0.01305857407221632</v>
+      </c>
+      <c r="F63">
+        <v>-0.02165824165863599</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.1115694311272436</v>
+        <v>-0.109704612544477</v>
       </c>
       <c r="C64">
-        <v>-0.02035538824690504</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.01646392178021391</v>
+      </c>
+      <c r="D64">
+        <v>0.05509524759914296</v>
+      </c>
+      <c r="E64">
+        <v>0.03376227224408072</v>
+      </c>
+      <c r="F64">
+        <v>-0.004103874231420959</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1548360785157608</v>
+        <v>-0.1582053868704022</v>
       </c>
       <c r="C65">
-        <v>-0.04673339504243447</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.04424573498390381</v>
+      </c>
+      <c r="D65">
+        <v>-0.04005948061822422</v>
+      </c>
+      <c r="E65">
+        <v>0.05904507265625777</v>
+      </c>
+      <c r="F65">
+        <v>-0.002775965160007943</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.107764227462568</v>
+        <v>-0.1007512350151583</v>
       </c>
       <c r="C66">
-        <v>-0.0174331453860472</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.01170109922017592</v>
+      </c>
+      <c r="D66">
+        <v>0.1413421109611881</v>
+      </c>
+      <c r="E66">
+        <v>0.02917923791836023</v>
+      </c>
+      <c r="F66">
+        <v>-0.004287622152697799</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.05976646463750359</v>
+        <v>-0.05051618723975218</v>
       </c>
       <c r="C67">
-        <v>-0.006509047335350472</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.003969763765938339</v>
+      </c>
+      <c r="D67">
+        <v>0.06599107237948816</v>
+      </c>
+      <c r="E67">
+        <v>-0.05440443165924018</v>
+      </c>
+      <c r="F67">
+        <v>-0.07099613000887325</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1304885285619094</v>
+        <v>-0.1353207363002231</v>
       </c>
       <c r="C68">
-        <v>-0.04148841898517931</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.04453224010459118</v>
+      </c>
+      <c r="D68">
+        <v>-0.2519435094267964</v>
+      </c>
+      <c r="E68">
+        <v>-0.04409378913600392</v>
+      </c>
+      <c r="F68">
+        <v>0.08391832687280475</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03929326105846232</v>
+        <v>-0.03893224949979041</v>
       </c>
       <c r="C69">
-        <v>-0.003800264766812833</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.002600432199303835</v>
+      </c>
+      <c r="D69">
+        <v>0.01320880858778045</v>
+      </c>
+      <c r="E69">
+        <v>0.01582531372123346</v>
+      </c>
+      <c r="F69">
+        <v>-0.05362146085484441</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.07157844874903567</v>
+        <v>-0.07263007994790953</v>
       </c>
       <c r="C70">
-        <v>0.02144844583594738</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.02323769020351818</v>
+      </c>
+      <c r="D70">
+        <v>0.05518711885541519</v>
+      </c>
+      <c r="E70">
+        <v>-0.3425596683719138</v>
+      </c>
+      <c r="F70">
+        <v>-0.1764289112356923</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1522753468872892</v>
+        <v>-0.1577671227852838</v>
       </c>
       <c r="C71">
-        <v>-0.04819759883147275</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.05061184780941172</v>
+      </c>
+      <c r="D71">
+        <v>-0.257189125583448</v>
+      </c>
+      <c r="E71">
+        <v>-0.04798732596005342</v>
+      </c>
+      <c r="F71">
+        <v>0.09299115432965753</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1399270218073545</v>
+        <v>-0.1460580932591729</v>
       </c>
       <c r="C72">
-        <v>-0.03570003181704959</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.03378930252704111</v>
+      </c>
+      <c r="D72">
+        <v>0.01295892618525964</v>
+      </c>
+      <c r="E72">
+        <v>0.06418696373171896</v>
+      </c>
+      <c r="F72">
+        <v>-0.03580188907560555</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.1926928034217575</v>
+        <v>-0.1996549795024967</v>
       </c>
       <c r="C73">
-        <v>-0.02406540457796898</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.01823065734366431</v>
+      </c>
+      <c r="D73">
+        <v>0.03248981781670369</v>
+      </c>
+      <c r="E73">
+        <v>0.07147467262437128</v>
+      </c>
+      <c r="F73">
+        <v>-0.06277618575194188</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.08743462407570532</v>
+        <v>-0.08745485646654161</v>
       </c>
       <c r="C74">
-        <v>-0.01750111601292688</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.01533948545219995</v>
+      </c>
+      <c r="D74">
+        <v>0.02049185564616791</v>
+      </c>
+      <c r="E74">
+        <v>0.08144195099599373</v>
+      </c>
+      <c r="F74">
+        <v>-0.02013104509513188</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1263584455346476</v>
+        <v>-0.1192640165493775</v>
       </c>
       <c r="C75">
-        <v>-0.03606933383781945</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.0322616310182633</v>
+      </c>
+      <c r="D75">
+        <v>0.03690332330155909</v>
+      </c>
+      <c r="E75">
+        <v>0.06611174157249705</v>
+      </c>
+      <c r="F75">
+        <v>-0.06388441189375621</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1524,285 +2208,519 @@
       <c r="C76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.07480622987546595</v>
+        <v>-0.0880018334871468</v>
       </c>
       <c r="C77">
-        <v>-0.01423192968824458</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.01125452388694451</v>
+      </c>
+      <c r="D77">
+        <v>0.1223641091722254</v>
+      </c>
+      <c r="E77">
+        <v>0.05534237201008366</v>
+      </c>
+      <c r="F77">
+        <v>0.01937829122041488</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.09384903420954149</v>
+        <v>-0.09649025079633276</v>
       </c>
       <c r="C78">
-        <v>-0.04349279463897396</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.04058503770433498</v>
+      </c>
+      <c r="D78">
+        <v>0.1426128868424802</v>
+      </c>
+      <c r="E78">
+        <v>0.05675686410076364</v>
+      </c>
+      <c r="F78">
+        <v>0.02192075882598151</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1677301279828646</v>
+        <v>-0.1636052742165462</v>
       </c>
       <c r="C79">
-        <v>-0.03478080938245205</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.0306861800948431</v>
+      </c>
+      <c r="D79">
+        <v>0.02904598007281226</v>
+      </c>
+      <c r="E79">
+        <v>0.04299115863975166</v>
+      </c>
+      <c r="F79">
+        <v>-0.04224729143902626</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.07854026109847309</v>
+        <v>-0.07567350839245725</v>
       </c>
       <c r="C80">
-        <v>-0.004775631360148747</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.002109439976861315</v>
+      </c>
+      <c r="D80">
+        <v>0.05545433644471794</v>
+      </c>
+      <c r="E80">
+        <v>-0.0202393043391138</v>
+      </c>
+      <c r="F80">
+        <v>-0.0471143086714893</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1136989207950932</v>
+        <v>-0.1074028936173968</v>
       </c>
       <c r="C81">
-        <v>-0.03716911306038136</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.03506313190012639</v>
+      </c>
+      <c r="D81">
+        <v>0.002959977498250873</v>
+      </c>
+      <c r="E81">
+        <v>0.04744312381360383</v>
+      </c>
+      <c r="F81">
+        <v>-0.06760469257914245</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1588004304220604</v>
+        <v>-0.1576152675074975</v>
       </c>
       <c r="C82">
-        <v>-0.03419682992213468</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.03076212203382237</v>
+      </c>
+      <c r="D82">
+        <v>-0.006154409682498549</v>
+      </c>
+      <c r="E82">
+        <v>0.1011746572195669</v>
+      </c>
+      <c r="F82">
+        <v>-0.008327013576136195</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.05513708779476273</v>
+        <v>-0.05078187838836575</v>
       </c>
       <c r="C83">
-        <v>-0.006622276051253075</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.004331979125903677</v>
+      </c>
+      <c r="D83">
+        <v>0.05191252126539665</v>
+      </c>
+      <c r="E83">
+        <v>-0.01652383649530471</v>
+      </c>
+      <c r="F83">
+        <v>-0.003583518034516097</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.05280448233157133</v>
+        <v>-0.04993822872172896</v>
       </c>
       <c r="C84">
-        <v>-0.01373990147269435</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.01111581971066205</v>
+      </c>
+      <c r="D84">
+        <v>0.07708306603629612</v>
+      </c>
+      <c r="E84">
+        <v>0.007473541410760076</v>
+      </c>
+      <c r="F84">
+        <v>-0.003833966698048551</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1391004726005261</v>
+        <v>-0.134142394276712</v>
       </c>
       <c r="C85">
-        <v>-0.03795926734582497</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.03453721239054606</v>
+      </c>
+      <c r="D85">
+        <v>0.02119707207796401</v>
+      </c>
+      <c r="E85">
+        <v>0.08798588354605678</v>
+      </c>
+      <c r="F85">
+        <v>-0.02372798361717884</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.08411627004299591</v>
+        <v>-0.08151417345115768</v>
       </c>
       <c r="C86">
-        <v>0.002094047722645839</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.006509833921535787</v>
+      </c>
+      <c r="D86">
+        <v>0.09610664228392335</v>
+      </c>
+      <c r="E86">
+        <v>-0.5686097008095214</v>
+      </c>
+      <c r="F86">
+        <v>-0.5625243709846489</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.08540855990474683</v>
+        <v>-0.08673156715899244</v>
       </c>
       <c r="C87">
-        <v>-0.02818272788152846</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.0237767703466588</v>
+      </c>
+      <c r="D87">
+        <v>0.08434740366999495</v>
+      </c>
+      <c r="E87">
+        <v>0.008948979219224521</v>
+      </c>
+      <c r="F87">
+        <v>0.11703187065099</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.0630493522265913</v>
+        <v>-0.06169319235343426</v>
       </c>
       <c r="C88">
-        <v>-0.007667145435670406</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.0050872444192953</v>
+      </c>
+      <c r="D88">
+        <v>0.06767456283343341</v>
+      </c>
+      <c r="E88">
+        <v>0.01766732882307418</v>
+      </c>
+      <c r="F88">
+        <v>-0.01578971620399451</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1379304016773767</v>
+        <v>-0.1420404653375775</v>
       </c>
       <c r="C89">
-        <v>-0.02119123213119471</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.02434905203509715</v>
+      </c>
+      <c r="D89">
+        <v>-0.2253033802241854</v>
+      </c>
+      <c r="E89">
+        <v>-0.0440196600135657</v>
+      </c>
+      <c r="F89">
+        <v>0.08997845627774301</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1646846713573866</v>
+        <v>-0.1732187172203832</v>
       </c>
       <c r="C90">
-        <v>-0.04482737027105935</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.04792817622129932</v>
+      </c>
+      <c r="D90">
+        <v>-0.2479001783993061</v>
+      </c>
+      <c r="E90">
+        <v>-0.07183147664369974</v>
+      </c>
+      <c r="F90">
+        <v>0.1226462805281506</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1259655200830024</v>
+        <v>-0.1202839359943653</v>
       </c>
       <c r="C91">
-        <v>-0.02868614553922546</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.02642844098026037</v>
+      </c>
+      <c r="D91">
+        <v>-0.01084123841462018</v>
+      </c>
+      <c r="E91">
+        <v>0.03528600518976635</v>
+      </c>
+      <c r="F91">
+        <v>-0.09879840111866948</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1621845162325719</v>
+        <v>-0.164366038255584</v>
       </c>
       <c r="C92">
-        <v>-0.03522891467278683</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.03813374984637623</v>
+      </c>
+      <c r="D92">
+        <v>-0.2843595476711225</v>
+      </c>
+      <c r="E92">
+        <v>-0.05703914413343023</v>
+      </c>
+      <c r="F92">
+        <v>0.08248339589901761</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1677866841338917</v>
+        <v>-0.1758961817110257</v>
       </c>
       <c r="C93">
-        <v>-0.0408565356355242</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.04283042765161291</v>
+      </c>
+      <c r="D93">
+        <v>-0.2383567405458063</v>
+      </c>
+      <c r="E93">
+        <v>-0.03017845251403107</v>
+      </c>
+      <c r="F93">
+        <v>0.06010563397219267</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1222710746218286</v>
+        <v>-0.1165400497684811</v>
       </c>
       <c r="C94">
-        <v>-0.03087298618703988</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.02698301183721582</v>
+      </c>
+      <c r="D94">
+        <v>0.04649224373637616</v>
+      </c>
+      <c r="E94">
+        <v>0.06185973320669619</v>
+      </c>
+      <c r="F94">
+        <v>-0.06282348501183628</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1241161259060603</v>
+        <v>-0.1270417859847889</v>
       </c>
       <c r="C95">
-        <v>-0.01373219645750055</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.00822695870359072</v>
+      </c>
+      <c r="D95">
+        <v>0.1203349931351963</v>
+      </c>
+      <c r="E95">
+        <v>0.01333784207995013</v>
+      </c>
+      <c r="F95">
+        <v>-0.03903134153780315</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.1787292404402286</v>
+        <v>-0.158957539702896</v>
       </c>
       <c r="C96">
-        <v>0.9780241024879894</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>-0.9804679895627746</v>
+      </c>
+      <c r="D96">
+        <v>-0.0578996422154801</v>
+      </c>
+      <c r="E96">
+        <v>0.0623288501106736</v>
+      </c>
+      <c r="F96">
+        <v>-0.01139392117455084</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1898760370980105</v>
+        <v>-0.1933721972582739</v>
       </c>
       <c r="C97">
-        <v>-0.007107572400650985</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.002218279195072255</v>
+      </c>
+      <c r="D97">
+        <v>-0.02054189888939065</v>
+      </c>
+      <c r="E97">
+        <v>-0.1534463092671008</v>
+      </c>
+      <c r="F97">
+        <v>-0.083840404442936</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.1895491880983236</v>
+        <v>-0.196743940598205</v>
       </c>
       <c r="C98">
-        <v>-0.01897419665583326</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.01358383789330357</v>
+      </c>
+      <c r="D98">
+        <v>0.01103896046920364</v>
+      </c>
+      <c r="E98">
+        <v>-0.1257886519477898</v>
+      </c>
+      <c r="F98">
+        <v>0.04606008761710396</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05595325428897689</v>
+        <v>-0.05594324238864218</v>
       </c>
       <c r="C99">
-        <v>0.0005537949600066661</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.002710238045785708</v>
+      </c>
+      <c r="D99">
+        <v>0.0594764072794003</v>
+      </c>
+      <c r="E99">
+        <v>0.007009711656495347</v>
+      </c>
+      <c r="F99">
+        <v>-0.004216331451236764</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1165491917376186</v>
+        <v>-0.1097841833092151</v>
       </c>
       <c r="C100">
-        <v>0.03442957568494114</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>-0.04129103356653559</v>
+      </c>
+      <c r="D100">
+        <v>0.3185391940008267</v>
+      </c>
+      <c r="E100">
+        <v>-0.533532272353328</v>
+      </c>
+      <c r="F100">
+        <v>0.6805976580600244</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.0249584972233333</v>
+        <v>-0.02734718191928686</v>
       </c>
       <c r="C101">
-        <v>-0.0099180883394416</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.00938636153961536</v>
+      </c>
+      <c r="D101">
+        <v>0.04215744602810621</v>
+      </c>
+      <c r="E101">
+        <v>-0.005888816273482673</v>
+      </c>
+      <c r="F101">
+        <v>-0.02277755721273938</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +2728,19 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +2748,33 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
